--- a/3daytimeseries.xlsx
+++ b/3daytimeseries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shalk\Documents\python d2 project\pyswmm attempt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99ABCC8-CEAE-42E6-82D5-DF289EC8AC6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B6E5AE-F1A9-4F8B-8A9B-06596FBC5D5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3150" yWindow="1305" windowWidth="18600" windowHeight="19980" xr2:uid="{023E4D3B-C6FF-4931-A5D6-F11F3914829D}"/>
   </bookViews>
@@ -34,7 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA1C14A-55D7-44F6-84B8-0BAF341CA473}">
-  <dimension ref="A2:C191"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100:S105"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +409,17 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44299</v>
